--- a/medicine/Autisme/The_A_Word/The_A_Word.xlsx
+++ b/medicine/Autisme/The_A_Word/The_A_Word.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">The A Word est une série télévisée dramatique britannique, basée sur la série israélienne Yellow Peppers (en) créée par Keren Margalit, diffusée entre le 22 mars 2016 et le 9 juin 2020 sur BBC One.
-En France, elle est diffusée depuis le 4 janvier 2023 sur Disney+[1].
+En France, elle est diffusée depuis le 4 janvier 2023 sur Disney+.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série suit un jeune garçon, Joe, et la façon dont sa famille fait face à la révélation qu'il est atteint d'un trouble du spectre autistique.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principaux
-Max Vento : Joe Hughes
+          <t>Principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Max Vento : Joe Hughes
 Lee Ingleby : Paul Hughes, père de Joe
 Morven Christie (VF : Maïa Michaud) : Alison Hughes, mère de Joe
 Molly Wright (en) (VF : Manon Adolphe puis Karl-Line Heller) : Rebecca Hughes, demi-sœur de Joe
@@ -555,9 +574,43 @@
 Christopher Eccleston : Maurice Scott, grand-père de Joe
 Pooky Quesnel (en) (VF : Emmanuelle Rivière) : Louise Wilson
 Leon Harrop (en) : Ralph Wilson, fils de Louise
-Matt Greenwood (en) (VF : Jonathan Gimbord) : Tom Clarke, meilleur ami de Rebecca
-Secondaires
-Daniel Cerqueira (VF : Arnaud Arbessier) : Dr Graves, médecin de la famille
+Matt Greenwood (en) (VF : Jonathan Gimbord) : Tom Clarke, meilleur ami de Rebecca</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Daniel Cerqueira (VF : Arnaud Arbessier) : Dr Graves, médecin de la famille
 Ralf Little (en) : Stuart, père biologique de Rebecca
 Tom Gregory (VF : Simon Koukissa-Barney) : Luke Taylor, le petit-ami de Rebecca (épisodes 2 à 6)
 Jude Akuwudike (en) (VF : Jean-Paul Pitolin) : Vincent Daniels, père de Nicola
@@ -568,53 +621,158 @@
 Sarah Gordy (VF : Léa Gabriele) : Katie Thorne, l'épouse de Ralph
 Nigel Betts (en) : Steve Thorne, père de Katie
 Sherry Baines : Clare Thorne, mère de Katie
- Source et légende : version française (VF) sur RS Doublage[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The_A_Word</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+ Source et légende : version française (VF) sur RS Doublage</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La série se divisent en 3 saisons de 6 épisodes d'environ 1h[3].
-Première saison (2016)
-Diagnostic
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série se divisent en 3 saisons de 6 épisodes d'environ 1h.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Première saison (2016)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diagnostic
 L'école à la maison
 Thérapie
 Soirée pyjama
 Au revoir
-Perdue
-Deuxième saison (2017)
-Faire face
+Perdue</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2017)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Faire face
 Partir
 On est encore là?
 La chute
 Album de famille
-Mêmes eaux profondes
-Troisième saison (2020)
-Episode 3.1
+Mêmes eaux profondes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Troisième saison (2020)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Episode 3.1
 Episode 3.2
 Episode 3.3
 Episode 3.4
@@ -623,65 +781,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>The_A_Word</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série reçoit une accueil positif en France par Télérama[4] et Le Parisien[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série reçoit une accueil positif en France par Télérama et Le Parisien.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>The_A_Word</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The_A_Word</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/The_A_Word</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Nominations
-2016 : meilleure fiction étrangère au Festival de la fiction TV de La Rochelle 2016
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2016 : meilleure fiction étrangère au Festival de la fiction TV de La Rochelle 2016
 2016 : meilleure actrice de télévision pour Morven Christie aux BAFTA Awards
 2018 : meilleure série dramatique et meilleure espoir pour Max Vento aux TV Times Awards</t>
         </is>
